--- a/TypeC/KS_Client_Information_Template.xlsx
+++ b/TypeC/KS_Client_Information_Template.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS\Desktop\RPA_전문개자과정_실습파일_수강생용\TypeC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\UIPath_study\TypeC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F587F-BE19-42E1-88F3-E179BCB05845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21671C9-E55A-4C8A-B302-0FCA380FFAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="1632" windowWidth="18420" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KS_Vendor_Information_Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>No.</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -93,31 +85,164 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>EU67601</t>
-  </si>
-  <si>
     <t>Currency</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>CX76110</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>RI52540</t>
+  </si>
+  <si>
     <t>CAD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floy Shedd</t>
-  </si>
-  <si>
-    <t>90 quai Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>TOULOUSE</t>
+  </si>
+  <si>
+    <t>AD55686</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>KI44163</t>
+  </si>
+  <si>
+    <t>OZ56329</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>HR70321</t>
+  </si>
+  <si>
+    <t>DR69832</t>
+  </si>
+  <si>
+    <t>KK58395</t>
+  </si>
+  <si>
+    <t>FP75053</t>
+  </si>
+  <si>
+    <t>AZ79829</t>
+  </si>
+  <si>
+    <t>TD88219</t>
+  </si>
+  <si>
+    <t>Mirian Derosier</t>
+  </si>
+  <si>
+    <t>Charlottenstrasse 64</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Camilla Escarcega</t>
+  </si>
+  <si>
+    <t>STR. RAPSODIEI nr. 4 bl. 143 sc. A ap. 3</t>
+  </si>
+  <si>
+    <t>Ploiesti</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Digna Buffaloe</t>
+  </si>
+  <si>
+    <t>Park Str. 11</t>
+  </si>
+  <si>
+    <t>Solingen Merscheid</t>
+  </si>
+  <si>
+    <t>Edison Byam</t>
+  </si>
+  <si>
+    <t>Billwerder Neuer Deich 15</t>
+  </si>
+  <si>
+    <t>Bad Berneck</t>
+  </si>
+  <si>
+    <t>Anna Dudas</t>
+  </si>
+  <si>
+    <t>Strada Mihai Eminescu Bl.1, Ap.41</t>
+  </si>
+  <si>
+    <t>Deva</t>
+  </si>
+  <si>
+    <t>Clement Paulette</t>
+  </si>
+  <si>
+    <t>Strada M.Kogalniceanu Bl.F3, Ap.2</t>
+  </si>
+  <si>
+    <t>Ewa Alcantar</t>
+  </si>
+  <si>
+    <t>Rudower Strasse 35</t>
+  </si>
+  <si>
+    <t>Auw an der Kyll</t>
+  </si>
+  <si>
+    <t>Fritz Balke</t>
+  </si>
+  <si>
+    <t>Strada Agricultori 115, Bl. 79</t>
+  </si>
+  <si>
+    <t>Bucuresti</t>
+  </si>
+  <si>
+    <t>Bud Baril</t>
+  </si>
+  <si>
+    <t>29 boulevard Albin Durand</t>
+  </si>
+  <si>
+    <t>MONT-DE-MARSAN</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
+    <t>Marylou Kenworthy</t>
+  </si>
+  <si>
+    <t>Via Silvio Spaventa 113</t>
+  </si>
+  <si>
+    <t>Todiano</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Caroll Eisenmann</t>
+  </si>
+  <si>
+    <t>?OS. ?TEF?NE?TI nr. 77A</t>
+  </si>
+  <si>
+    <t>Voluntari</t>
+  </si>
+  <si>
     <t>O</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1306,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1389,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
@@ -1423,416 +1548,1066 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>814795</v>
+        <v>118588</v>
       </c>
       <c r="E6" s="1">
-        <v>264510</v>
+        <v>809163</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1">
+        <v>314980</v>
+      </c>
+      <c r="M6" s="1">
+        <v>494183</v>
+      </c>
+      <c r="N6" s="1">
+        <v>809163</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="D7" s="1">
+        <v>617912</v>
+      </c>
+      <c r="E7" s="1">
+        <v>851112</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1">
+        <v>692424</v>
+      </c>
+      <c r="M7" s="1">
+        <v>158688</v>
+      </c>
+      <c r="N7" s="1">
+        <v>851112</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="D8" s="1">
+        <v>794186</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4050196</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="1">
-        <v>733821</v>
-      </c>
-      <c r="M6" s="1">
-        <v>-469311</v>
-      </c>
-      <c r="N6" s="1">
-        <v>264510</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2531162</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1519034</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4050196</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="5"/>
+      <c r="D9" s="1">
+        <v>489855</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1656583</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>940881</v>
+      </c>
+      <c r="M9" s="1">
+        <v>715702</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1656583</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="P10" s="5"/>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>585155</v>
+      </c>
+      <c r="E10" s="1">
+        <v>379552</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1123803</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-744251</v>
+      </c>
+      <c r="N10" s="1">
+        <v>379552</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="5"/>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>349972</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1452946</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1064861</v>
+      </c>
+      <c r="M11" s="1">
+        <v>388085</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1452946</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="P12" s="5"/>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>200081</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2533231</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2371168</v>
+      </c>
+      <c r="M12" s="1">
+        <v>162063</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2533231</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="P13" s="5"/>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>602264</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-206464</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-239967</v>
+      </c>
+      <c r="M13" s="1">
+        <v>33503</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-206464</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="5"/>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>280545</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2179665</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1577595</v>
+      </c>
+      <c r="M14" s="1">
+        <v>602070</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2179665</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="P15" s="5"/>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>403259</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-958540</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="1">
+        <v>117575</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1076115</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-958540</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="P16" s="5"/>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>473521</v>
+      </c>
+      <c r="E16" s="1">
+        <v>506157</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-53559</v>
+      </c>
+      <c r="M16" s="1">
+        <v>559716</v>
+      </c>
+      <c r="N16" s="1">
+        <v>506157</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="5"/>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>984228</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-450179</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="1">
+        <v>228188</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-678367</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-450179</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="P18" s="5"/>
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1">
+        <v>750490</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1079909</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="1">
+        <v>234170</v>
+      </c>
+      <c r="M18" s="1">
+        <v>845739</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1079909</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="P19" s="5"/>
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <v>637571</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1448292</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1257528</v>
+      </c>
+      <c r="M19" s="1">
+        <v>190764</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1448292</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="P20" s="5"/>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>518568</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2798023</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1943735</v>
+      </c>
+      <c r="M20" s="1">
+        <v>854288</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2798023</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="P21" s="5"/>
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>291170</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-158188</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-801411</v>
+      </c>
+      <c r="M21" s="1">
+        <v>643223</v>
+      </c>
+      <c r="N21" s="1">
+        <v>-158188</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="P22" s="5"/>
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>192831</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1557790</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1">
+        <v>486907</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1070883</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1557790</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="P23" s="5"/>
+      <c r="B23" s="1">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <v>135098</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-749788</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-897216</v>
+      </c>
+      <c r="M23" s="1">
+        <v>147428</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-749788</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="P24" s="5"/>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1">
+        <v>229039</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-173473</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5741</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-179214</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-173473</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="P25" s="5"/>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1">
+        <v>925219</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1789146</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1104576</v>
+      </c>
+      <c r="M25" s="1">
+        <v>684570</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1789146</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="P26" s="5"/>
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1">
+        <v>226004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1821641</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1569260</v>
+      </c>
+      <c r="M26" s="1">
+        <v>252381</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1821641</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="P27" s="5"/>
+      <c r="B27" s="1">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
+        <v>285647</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1248996</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1087776</v>
+      </c>
+      <c r="M27" s="1">
+        <v>161220</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1248996</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="P28" s="5"/>
+      <c r="B28" s="1">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
+        <v>537929</v>
+      </c>
+      <c r="E28" s="1">
+        <v>784835</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1022900</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-238065</v>
+      </c>
+      <c r="N28" s="1">
+        <v>784835</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="P29" s="5"/>
+      <c r="B29" s="1">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1">
+        <v>118588</v>
+      </c>
+      <c r="E29" s="1">
+        <v>809163</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="1">
+        <v>314980</v>
+      </c>
+      <c r="M29" s="1">
+        <v>494183</v>
+      </c>
+      <c r="N29" s="1">
+        <v>809163</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="P30" s="5"/>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1">
+        <v>617912</v>
+      </c>
+      <c r="E30" s="1">
+        <v>851112</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="1">
+        <v>692424</v>
+      </c>
+      <c r="M30" s="1">
+        <v>158688</v>
+      </c>
+      <c r="N30" s="1">
+        <v>851112</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="P31" s="5"/>
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1">
+        <v>794186</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4050196</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2531162</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1519034</v>
+      </c>
+      <c r="N31" s="1">
+        <v>4050196</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
@@ -1895,81 +2670,169 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="5"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="P37" s="5"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="P38" s="5"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="P39" s="5"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="P40" s="5"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="P41" s="5"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="P42" s="5"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="P45" s="5"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="P46" s="5"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="J47" s="2"/>
